--- a/docs/Time sheet Template.xlsx
+++ b/docs/Time sheet Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.li\Desktop\Projects\Lim\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A27C30BD-3DBE-4446-BC9F-F67042E943F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8AB1A0-5583-4C0D-81D6-70C9BFFD162B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2475" yWindow="3330" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F52"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +565,7 @@
         <v>17</v>
       </c>
       <c r="F7" s="7">
-        <v>43739</v>
+        <v>43770</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -592,10 +592,18 @@
       <c r="A10" s="6">
         <v>1</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="10"/>
+      <c r="B10" s="8">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
+        <v>9</v>
+      </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -622,40 +630,72 @@
       <c r="A13" s="6">
         <v>4</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="10"/>
+      <c r="B13" s="8">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10">
+        <v>9</v>
+      </c>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>5</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="10"/>
+      <c r="B14" s="8">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10">
+        <v>9</v>
+      </c>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>6</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="10"/>
+      <c r="B15" s="8">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10">
+        <v>9</v>
+      </c>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>7</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="10"/>
+      <c r="B16" s="8">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10">
+        <v>9</v>
+      </c>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -680,36 +720,20 @@
       <c r="A18" s="6">
         <v>9</v>
       </c>
-      <c r="B18" s="8">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="C18" s="8">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="D18" s="6">
-        <v>1</v>
-      </c>
-      <c r="E18" s="10">
-        <v>9</v>
-      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="10"/>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>10</v>
       </c>
-      <c r="B19" s="8">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="C19" s="8">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="D19" s="6">
-        <v>1</v>
-      </c>
-      <c r="E19" s="10">
-        <v>9</v>
-      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="10"/>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -734,20 +758,36 @@
       <c r="A21" s="6">
         <v>12</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="10"/>
+      <c r="B21" s="8">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="10">
+        <v>9</v>
+      </c>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>13</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="10"/>
+      <c r="B22" s="8">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10">
+        <v>9</v>
+      </c>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -758,13 +798,13 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C23" s="8">
-        <v>0.5</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D23" s="6">
         <v>1</v>
       </c>
       <c r="E23" s="10">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="F23" s="5"/>
     </row>
@@ -790,36 +830,20 @@
       <c r="A25" s="6">
         <v>16</v>
       </c>
-      <c r="B25" s="8">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="C25" s="8">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="D25" s="6">
-        <v>1</v>
-      </c>
-      <c r="E25" s="10">
-        <v>9</v>
-      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="10"/>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>17</v>
       </c>
-      <c r="B26" s="8">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="C26" s="8">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="D26" s="6">
-        <v>1</v>
-      </c>
-      <c r="E26" s="10">
-        <v>9</v>
-      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="10"/>
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -854,10 +878,18 @@
       <c r="A29" s="6">
         <v>20</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="10"/>
+      <c r="B29" s="8">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C29" s="8">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D29" s="6">
+        <v>1</v>
+      </c>
+      <c r="E29" s="10">
+        <v>9</v>
+      </c>
       <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -900,36 +932,20 @@
       <c r="A32" s="6">
         <v>23</v>
       </c>
-      <c r="B32" s="8">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="C32" s="8">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="D32" s="6">
-        <v>1</v>
-      </c>
-      <c r="E32" s="10">
-        <v>9</v>
-      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="10"/>
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>24</v>
       </c>
-      <c r="B33" s="8">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="C33" s="8">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="D33" s="6">
-        <v>1</v>
-      </c>
-      <c r="E33" s="10">
-        <v>9</v>
-      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="10"/>
       <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -954,20 +970,36 @@
       <c r="A35" s="6">
         <v>26</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="10"/>
+      <c r="B35" s="8">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C35" s="8">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D35" s="6">
+        <v>1</v>
+      </c>
+      <c r="E35" s="10">
+        <v>9</v>
+      </c>
       <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>27</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="10"/>
+      <c r="B36" s="8">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C36" s="8">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D36" s="6">
+        <v>1</v>
+      </c>
+      <c r="E36" s="10">
+        <v>9</v>
+      </c>
       <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -978,13 +1010,13 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C37" s="8">
-        <v>0.5</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D37" s="6">
         <v>1</v>
       </c>
       <c r="E37" s="10">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="F37" s="5"/>
     </row>
@@ -1010,36 +1042,20 @@
       <c r="A39" s="6">
         <v>30</v>
       </c>
-      <c r="B39" s="8">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="C39" s="8">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="D39" s="6">
-        <v>1</v>
-      </c>
-      <c r="E39" s="10">
-        <v>9</v>
-      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="10"/>
       <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>31</v>
       </c>
-      <c r="B40" s="8">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="C40" s="8">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="D40" s="6">
-        <v>1</v>
-      </c>
-      <c r="E40" s="10">
-        <v>9</v>
-      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="10"/>
       <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1050,8 +1066,8 @@
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="11">
-        <f>SUM(E17:E40)</f>
-        <v>151</v>
+        <f>SUM(E10:E40)</f>
+        <v>180</v>
       </c>
       <c r="F41" s="3"/>
     </row>
